--- a/xlsx/户外运动_intext.xlsx
+++ b/xlsx/户外运动_intext.xlsx
@@ -29,7 +29,7 @@
     <t>徒步</t>
   </si>
   <si>
-    <t>政策_政策_美國_户外运动</t>
+    <t>政策_政策_美国_户外运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E8%90%A5</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5</t>
   </si>
   <si>
-    <t>狩獵</t>
+    <t>狩猎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>生存遊戲</t>
+    <t>生存游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BB%A9%E6%8E%92%E7%90%83</t>
